--- a/DocumentationReport.xlsx
+++ b/DocumentationReport.xlsx
@@ -23,7 +23,7 @@
     <t>Solution:</t>
   </si>
   <si>
-    <t>Gie.Iot.Doc</t>
+    <t>Gie.Iot.Documentation</t>
   </si>
   <si>
     <t>Entire documentation:</t>
@@ -245,7 +245,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>44883.785647291668</v>
+        <v>44885.341656296296</v>
       </c>
     </row>
     <row r="3">
@@ -299,10 +299,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -313,10 +313,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -369,10 +369,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -383,13 +383,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="0">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C14" s="0">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -411,10 +411,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" s="11">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>15</v>
       </c>
       <c r="B49" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>16</v>
       </c>
       <c r="B50" s="0">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C50" s="0">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D50" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -855,10 +855,10 @@
         <v>18</v>
       </c>
       <c r="B52" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C52" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D52" s="11">
         <v>0</v>
